--- a/Example-spreadsheet.xlsx
+++ b/Example-spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Coding\Projects\2025\2025-05 QuizApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A039E1-562D-49C2-AEDD-9D485A1395E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5194F-DA4C-4677-9250-CE538C490003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Explanation</t>
+  </si>
+  <si>
+    <t>Option E</t>
   </si>
 </sst>
 </file>
@@ -374,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,10 +389,11 @@
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,9 +410,12 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
